--- a/src/controllers/helper/receipt_fix_001.xlsx
+++ b/src/controllers/helper/receipt_fix_001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/src/controllers/helper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F46429-51BF-B544-989D-647AAEFC924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F21D7-1B61-9442-A401-90FC894E35BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="3400" windowWidth="36740" windowHeight="14480" xr2:uid="{1028BB87-6910-C144-B0D6-CFFC469F2AC7}"/>
+    <workbookView xWindow="59100" yWindow="500" windowWidth="36740" windowHeight="14480" xr2:uid="{1028BB87-6910-C144-B0D6-CFFC469F2AC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10067,11 +10067,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E720E19D-B10C-4F4C-BC63-BBA25946374F}">
   <dimension ref="A1:V1713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="C1360" workbookViewId="0">
+      <selection activeCell="C1375" sqref="A1375:XFD1375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
